--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Adverse Event Mitigation Categories</t>
+    <t>Adverse Event Mitigation Categories Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
+++ b/ValueSet-onconova-vs-adverse-event-mitigation-categories.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
